--- a/CA_data/Enrollment/EnrEthYr/2021-22/11+GLENN_no_char.xlsx
+++ b/CA_data/Enrollment/EnrEthYr/2021-22/11+GLENN_no_char.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Academic Year</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Not Reported</t>
   </si>
   <si>
+    <t>2022-23</t>
+  </si>
+  <si>
     <t>2021-22</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t>2016-17</t>
   </si>
   <si>
-    <t>2015-16</t>
+    <t>0.3%</t>
   </si>
   <si>
     <t>0.4%</t>
@@ -76,7 +79,7 @@
     <t>0.5%</t>
   </si>
   <si>
-    <t>0.3%</t>
+    <t>2.3%</t>
   </si>
   <si>
     <t>2.0%</t>
@@ -88,7 +91,7 @@
     <t>1.8%</t>
   </si>
   <si>
-    <t>2.3%</t>
+    <t>2.1%</t>
   </si>
   <si>
     <t>2.2%</t>
@@ -103,15 +106,15 @@
     <t>2.7%</t>
   </si>
   <si>
-    <t>2.8%</t>
-  </si>
-  <si>
     <t>0.1%</t>
   </si>
   <si>
     <t>0.2%</t>
   </si>
   <si>
+    <t>60.3%</t>
+  </si>
+  <si>
     <t>59.6%</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t>57.3%</t>
   </si>
   <si>
-    <t>57.8%</t>
+    <t>32.4%</t>
   </si>
   <si>
     <t>33.2%</t>
@@ -148,7 +151,7 @@
     <t>35.1%</t>
   </si>
   <si>
-    <t>34.6%</t>
+    <t>1.4%</t>
   </si>
   <si>
     <t>1.5%</t>
@@ -573,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>5283</v>
+        <v>5230</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -582,7 +585,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -608,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5142</v>
+        <v>5283</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -617,10 +620,10 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -632,10 +635,10 @@
         <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,16 +646,16 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>5236</v>
+        <v>5142</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -667,10 +670,10 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,22 +681,22 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>5309</v>
+        <v>5236</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>5266</v>
+        <v>5309</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -725,13 +728,13 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
@@ -740,7 +743,7 @@
         <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -748,13 +751,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>5221</v>
+        <v>5266</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -766,16 +769,16 @@
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -783,13 +786,13 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>5242</v>
+        <v>5221</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -807,10 +810,10 @@
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
